--- a/special_practice/special_practice.xlsx
+++ b/special_practice/special_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC545C5E-1D8B-4358-A94A-2EB7602D069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EBB8D-AD7C-4976-8F2A-5AB9354FAC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>DATE</t>
   </si>
@@ -36,7 +36,7 @@
     <t>6:30pm - 8:30pm</t>
   </si>
   <si>
-    <t>6:00pm - 8:00pm</t>
+    <t>3:00p - 6:00pm</t>
   </si>
 </sst>
 </file>
@@ -272,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B3" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B5" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="SPECIAL PRACTICE" dataDxfId="0"/>
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,11 +576,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45925</v>
+        <v>45928</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/special_practice/special_practice.xlsx
+++ b/special_practice/special_practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EBB8D-AD7C-4976-8F2A-5AB9354FAC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517B6363-E0E1-44BB-9EE6-6FAF8DB53B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>SPECIAL PRACTICE</t>
   </si>
   <si>
     <t>6:30pm - 8:30pm</t>
   </si>
   <si>
-    <t>3:00p - 6:00pm</t>
+    <t>ADDITIONAL PRACTICE</t>
+  </si>
+  <si>
+    <t>12:30pm - 1:30pm</t>
+  </si>
+  <si>
+    <t>3:00pm - 11:59pm</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
   <autoFilter ref="A1:B5" xr:uid="{9C00AABF-AC9E-4905-8775-0DB15CF9B94C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8396CAF2-5E6A-4A78-8CEC-3A11B982418F}" name="DATE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="SPECIAL PRACTICE" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F001D21A-43F6-467D-966D-DDCD0E71ABC2}" name="ADDITIONAL PRACTICE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,13 +551,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -563,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +574,7 @@
         <v>45923</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +582,7 @@
         <v>45928</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,12 +590,16 @@
         <v>45930</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
